--- a/Data/Input/FundsDistributions_TestCaseV1.0.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FederalBotFactory\FundDistributions\3. Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465DF99A-9BAD-41DD-9CDC-239E1F50CF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA4C9D-EDB1-4E9D-8542-90936519D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
@@ -17,17 +17,27 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>Budget Level</t>
   </si>
@@ -192,6 +202,12 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>Demo 6</t>
+  </si>
+  <si>
+    <t>Approtionment</t>
   </si>
 </sst>
 </file>
@@ -545,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +667,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -940,6 +956,154 @@
       </c>
       <c r="W5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44064</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>2019</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>251000</v>
+      </c>
+      <c r="Q6">
+        <v>4450000000</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44090</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>2020</v>
+      </c>
+      <c r="J7">
+        <v>1200000115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>210000</v>
+      </c>
+      <c r="Q7">
+        <v>4610000010</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/FundsDistributions_TestCaseV1.0.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV1.0.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA4C9D-EDB1-4E9D-8542-90936519D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726103CC-BE51-48FE-9AC6-86E46B197959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
   <si>
     <t>Budget Level</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Transaction Amount</t>
   </si>
   <si>
-    <t>Demo 2</t>
-  </si>
-  <si>
     <t>25.12001919AD.2019.A000000000.A00000.A0000.R00000.ROASEC.DM0000.251000.4510000000.A000000000.A000000000.A000000000</t>
   </si>
   <si>
@@ -165,9 +163,6 @@
     <t>Allotment</t>
   </si>
   <si>
-    <t>Demo 3</t>
-  </si>
-  <si>
     <t>SUBALLOT</t>
   </si>
   <si>
@@ -208,16 +203,37 @@
   </si>
   <si>
     <t>Approtionment</t>
+  </si>
+  <si>
+    <t>Demo 7</t>
+  </si>
+  <si>
+    <t>Demo 8</t>
+  </si>
+  <si>
+    <t>Demo 9</t>
+  </si>
+  <si>
+    <t>Demo 10</t>
+  </si>
+  <si>
+    <t>Demo 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -561,16 +577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="114.453125" bestFit="1" customWidth="1"/>
@@ -667,10 +683,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>44842</v>
@@ -741,10 +757,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>44842</v>
@@ -753,25 +769,25 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
-        <v>44090</v>
+        <v>44118</v>
       </c>
       <c r="G3">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>2020</v>
       </c>
-      <c r="J3">
-        <v>1200000115</v>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -780,13 +796,13 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
       </c>
       <c r="P3">
-        <v>210000</v>
+        <v>251000</v>
       </c>
       <c r="Q3">
         <v>4610000010</v>
@@ -801,10 +817,10 @@
         <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
         <v>34</v>
@@ -815,10 +831,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>44842</v>
@@ -827,10 +843,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>44118</v>
+        <v>44145</v>
       </c>
       <c r="G4">
         <v>25</v>
@@ -859,11 +875,11 @@
       <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="P4">
-        <v>251000</v>
+      <c r="P4" s="2">
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4610000010</v>
+        <v>4610000020</v>
       </c>
       <c r="R4" t="s">
         <v>24</v>
@@ -875,24 +891,21 @@
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s">
         <v>34</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>44842</v>
@@ -901,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>44145</v>
+        <v>44090</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>2020</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
+      <c r="J5">
+        <v>1200000115</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -928,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="2">
-        <v>0</v>
+      <c r="P5">
+        <v>210000</v>
       </c>
       <c r="Q5">
-        <v>4610000020</v>
+        <v>4610000010</v>
       </c>
       <c r="R5" t="s">
         <v>24</v>
@@ -949,21 +962,336 @@
         <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
         <v>34</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD68D21-E5B9-46C1-A229-0E7736BD3408}">
+  <dimension ref="A2:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44090</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>2020</v>
+      </c>
+      <c r="J2">
+        <v>1200000115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2">
+        <v>210000</v>
+      </c>
+      <c r="Q2">
+        <v>4610000010</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44118</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>2020</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>251000</v>
+      </c>
+      <c r="Q3">
+        <v>4610000010</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44145</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>2020</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>4610000020</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44064</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>2019</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5">
+        <v>251000</v>
+      </c>
+      <c r="Q5">
+        <v>4450000000</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>44842</v>
@@ -972,25 +1300,25 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>44064</v>
+        <v>44090</v>
       </c>
       <c r="G6">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>2019</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
+        <v>2020</v>
+      </c>
+      <c r="J6">
+        <v>1200000115</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -999,16 +1327,16 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
       </c>
       <c r="P6">
-        <v>251000</v>
+        <v>210000</v>
       </c>
       <c r="Q6">
-        <v>4450000000</v>
+        <v>4610000010</v>
       </c>
       <c r="R6" t="s">
         <v>24</v>
@@ -1020,89 +1348,15 @@
         <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
         <v>34</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44842</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44090</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7">
-        <v>2020</v>
-      </c>
-      <c r="J7">
-        <v>1200000115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7">
-        <v>210000</v>
-      </c>
-      <c r="Q7">
-        <v>4610000010</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7">
         <v>1</v>
       </c>
     </row>
@@ -1111,7 +1365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA25C96D-D544-418A-BD89-0869C7521EDA}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -1286,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -1297,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006E2999-BAC9-48E5-93FC-AE3DC0C400DA}">
   <dimension ref="E13"/>
   <sheetViews>
@@ -1309,7 +1563,7 @@
   <sheetData>
     <row r="13" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
